--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
@@ -82,22 +82,22 @@
     <t>safe</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
   <si>
     <t>better</t>
@@ -966,13 +966,13 @@
         <v>22</v>
       </c>
       <c r="K11">
-        <v>0.6826086956521739</v>
+        <v>0.6703296703296703</v>
       </c>
       <c r="L11">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="M11">
-        <v>166</v>
+        <v>64</v>
       </c>
       <c r="N11">
         <v>0.95</v>
@@ -984,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="Q11">
-        <v>73</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -992,25 +992,25 @@
         <v>23</v>
       </c>
       <c r="K12">
-        <v>0.6703296703296703</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L12">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="M12">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="N12">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O12">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1018,25 +1018,25 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>0.6666666666666666</v>
+        <v>0.6569037656903766</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="M13">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="N13">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>15</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1070,25 +1070,25 @@
         <v>26</v>
       </c>
       <c r="K15">
-        <v>0.5945121951219512</v>
+        <v>0.5747126436781609</v>
       </c>
       <c r="L15">
-        <v>195</v>
+        <v>50</v>
       </c>
       <c r="M15">
-        <v>207</v>
+        <v>52</v>
       </c>
       <c r="N15">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O15">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P15" t="b">
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>133</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1096,25 +1096,25 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.5747126436781609</v>
+        <v>0.5735294117647058</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>195</v>
       </c>
       <c r="M16">
-        <v>52</v>
+        <v>195</v>
       </c>
       <c r="N16">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>37</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="10:17">
